--- a/src/main/java/Resources/demoExel.xlsx
+++ b/src/main/java/Resources/demoExel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhagyawantpawar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhagyawantpawar/git/SeleniumDemo/SeleniumWeb/src/main/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDE69CD-0D88-EA46-82A0-4C94D5ED1D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ECB5CF-939C-B444-A1D5-BE69DDCBA0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{04081780-E967-2A49-82F8-7167DA54B919}"/>
   </bookViews>
@@ -34,29 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Testcases</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>mobilenumber</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
     <t>pawar</t>
   </si>
   <si>
-    <t>jay</t>
-  </si>
-  <si>
-    <t>vicky</t>
-  </si>
-  <si>
     <t>data2</t>
   </si>
   <si>
@@ -64,15 +49,6 @@
   </si>
   <si>
     <t>data1</t>
-  </si>
-  <si>
-    <t>kjkk</t>
-  </si>
-  <si>
-    <t>hjkjkjk</t>
-  </si>
-  <si>
-    <t>jkjjk</t>
   </si>
   <si>
     <t>registerdata</t>
@@ -446,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD888F-4580-4A43-BF2D-7FE41F1053F6}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,73 +442,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="D2">
         <v>8421238017</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Resources/demoExel.xlsx
+++ b/src/main/java/Resources/demoExel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhagyawantpawar/git/SeleniumDemo/SeleniumWeb/src/main/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ECB5CF-939C-B444-A1D5-BE69DDCBA0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43385927-3C21-C546-855F-D56B1E525DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{04081780-E967-2A49-82F8-7167DA54B919}"/>
   </bookViews>
